--- a/process/case study/Data collection.xlsx
+++ b/process/case study/Data collection.xlsx
@@ -4,36 +4,38 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="420" windowWidth="28440" windowHeight="12195"/>
+    <workbookView xWindow="180" yWindow="465" windowWidth="23640" windowHeight="9390" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="RQ1" sheetId="1" r:id="rId1"/>
-    <sheet name="RQ2" sheetId="2" r:id="rId2"/>
-    <sheet name="RQ3" sheetId="3" r:id="rId3"/>
+    <sheet name=" RQ1p1" sheetId="1" r:id="rId1"/>
+    <sheet name="RQ1p2" sheetId="4" r:id="rId2"/>
+    <sheet name="RQ2" sheetId="2" r:id="rId3"/>
+    <sheet name="RQ3" sheetId="3" r:id="rId4"/>
+    <sheet name="RQ4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="38">
   <si>
     <t>Phase</t>
+  </si>
+  <si>
+    <t>QMs</t>
   </si>
   <si>
     <t>Uses in Activities</t>
   </si>
   <si>
+    <t>First</t>
+  </si>
+  <si>
     <t>Time Spent (hours)</t>
   </si>
   <si>
-    <t>QMs</t>
-  </si>
-  <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>Artifact</t>
+    <t>Second</t>
   </si>
   <si>
     <t>Collect Team Information</t>
@@ -60,16 +62,76 @@
     <t>Document Feature Artifacts</t>
   </si>
   <si>
-    <t>Document Process Experience</t>
+    <t>Artifact</t>
   </si>
   <si>
-    <t>Total Use</t>
+    <t>Document Process Experience</t>
   </si>
   <si>
     <t>TOTAL (hours)</t>
   </si>
   <si>
-    <t>Second</t>
+    <t>Total Use Phase 1</t>
+  </si>
+  <si>
+    <t>Team Information Report</t>
+  </si>
+  <si>
+    <t>Artifact type specification</t>
+  </si>
+  <si>
+    <t>Development Information Report</t>
+  </si>
+  <si>
+    <t>Domain Glossary</t>
+  </si>
+  <si>
+    <t>Domain Constraints List</t>
+  </si>
+  <si>
+    <t>Requirements Specification</t>
+  </si>
+  <si>
+    <t>Retrieval Techniques Report</t>
+  </si>
+  <si>
+    <t>Feature Retrieval FM</t>
+  </si>
+  <si>
+    <t>Guidelines Documentation</t>
+  </si>
+  <si>
+    <t>Assembled Process</t>
+  </si>
+  <si>
+    <t>Process Documentation</t>
+  </si>
+  <si>
+    <t>Feature Report</t>
+  </si>
+  <si>
+    <t>Feature Diagram</t>
+  </si>
+  <si>
+    <t>Total Use Phase 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Was artifact reused?</t>
+  </si>
+  <si>
+    <t>Used without modification</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
   </si>
 </sst>
 </file>
@@ -112,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -125,6 +187,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -448,9 +513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -459,9 +526,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -488,39 +555,39 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
+    <row r="2" spans="1:26" ht="38.25">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -538,20 +605,30 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+    <row r="3" spans="1:26" ht="38.25">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4">
-        <f t="shared" ref="K3:K8" si="0">SUM(B3:J3)</f>
-        <v>0</v>
+        <f t="shared" ref="K3:K16" si="0">SUM(B3:J3)</f>
+        <v>4</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -569,12 +646,18 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:26" ht="25.5">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -582,7 +665,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -600,12 +683,18 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:26" ht="38.25">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -613,7 +702,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -632,11 +721,17 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -644,7 +739,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -662,12 +757,18 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:26" ht="25.5">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -675,7 +776,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -693,20 +794,28 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:26" ht="25.5">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -724,18 +833,29 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:26" ht="38.25">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -752,18 +872,27 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:26" ht="25.5">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -780,18 +909,29 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:26" ht="25.5">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -808,18 +948,27 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:26" ht="25.5">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -836,18 +985,27 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:26" ht="25.5">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -864,18 +1022,27 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:26" ht="12.75">
+      <c r="A14" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -893,17 +1060,28 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -931,7 +1109,10 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -28528,6 +28709,34 @@
       <c r="Y1001" s="4"/>
       <c r="Z1001" s="4"/>
     </row>
+    <row r="1002" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A1002" s="4"/>
+      <c r="B1002" s="4"/>
+      <c r="C1002" s="4"/>
+      <c r="D1002" s="4"/>
+      <c r="E1002" s="4"/>
+      <c r="F1002" s="4"/>
+      <c r="G1002" s="4"/>
+      <c r="H1002" s="4"/>
+      <c r="I1002" s="4"/>
+      <c r="J1002" s="4"/>
+      <c r="K1002" s="4"/>
+      <c r="L1002" s="4"/>
+      <c r="M1002" s="4"/>
+      <c r="N1002" s="4"/>
+      <c r="O1002" s="4"/>
+      <c r="P1002" s="4"/>
+      <c r="Q1002" s="4"/>
+      <c r="R1002" s="4"/>
+      <c r="S1002" s="4"/>
+      <c r="T1002" s="4"/>
+      <c r="U1002" s="4"/>
+      <c r="V1002" s="4"/>
+      <c r="W1002" s="4"/>
+      <c r="X1002" s="4"/>
+      <c r="Y1002" s="4"/>
+      <c r="Z1002" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
@@ -28538,11 +28747,453 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="38.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="38.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K15" si="0">SUM(B3:J3)</f>
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <f>SUM(' RQ1p1'!K3,RQ1p2!K3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="25.5">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>SUM(' RQ1p1'!K4,RQ1p2!K4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="38.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f>SUM(' RQ1p1'!K5,RQ1p2!K5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="25.5">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f>SUM(' RQ1p1'!K6,RQ1p2!K6)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="25.5">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f>SUM(' RQ1p1'!K7,RQ1p2!K7)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="25.5">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f>SUM(' RQ1p1'!K8,RQ1p2!K8)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="38.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f>SUM(' RQ1p1'!K9,RQ1p2!K9)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="25.5">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <f>SUM(' RQ1p1'!K10,RQ1p2!K10)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="25.5">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <f>SUM(' RQ1p1'!K11,RQ1p2!K11)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="25.5">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <f>SUM(' RQ1p1'!K12,RQ1p2!K12)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="25.5">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <f>SUM(' RQ1p1'!K13,RQ1p2!K13)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <f>SUM(' RQ1p1'!K14,RQ1p2!K14)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <f>SUM(' RQ1p1'!K15,RQ1p2!K15)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -28550,18 +29201,18 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>3</v>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="B2" s="2">
@@ -28597,7 +29248,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2"/>
       <c r="L3">
@@ -28607,7 +29258,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
@@ -28642,12 +29293,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -28659,16 +29310,16 @@
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -28686,36 +29337,36 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" ht="53.25" customHeight="1">
+    <row r="2" spans="1:26" ht="38.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>16</v>
@@ -28738,20 +29389,38 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="B3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:K4" si="0">SUM(B3:J3)</f>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -28771,20 +29440,38 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.5</v>
+      </c>
       <c r="K4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -56724,4 +57411,151 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="25.5">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="38.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="25.5">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="38.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="25.5">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="25.5">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="25.5">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="38.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="25.5">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="25.5">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="25.5">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/process/case study/Data collection.xlsx
+++ b/process/case study/Data collection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="468" windowWidth="23256" windowHeight="9396" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="468" windowWidth="23256" windowHeight="9396" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name=" RQ1p1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="RQ2" sheetId="2" r:id="rId3"/>
     <sheet name="RQ3" sheetId="3" r:id="rId4"/>
     <sheet name="RQ4" sheetId="5" r:id="rId5"/>
+    <sheet name="Plan1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="46">
   <si>
     <t>Phase</t>
   </si>
@@ -136,12 +137,33 @@
   <si>
     <t>Not Used</t>
   </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Peform Documentation Analysis</t>
+  </si>
+  <si>
+    <t>Assign Roles</t>
+  </si>
+  <si>
+    <t>Prepare</t>
+  </si>
+  <si>
+    <t>Assemble</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>Effort per Phase</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -155,6 +177,12 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -192,6 +220,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -232,6 +263,311 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pt-BR"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Activity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.3066455536033199E-3"/>
+                  <c:y val="-5.9658926905236588E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showPercent val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.9995697851818113E-2"/>
+                  <c:y val="-1.31183250431292E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showPercent val="1"/>
+            </c:dLbl>
+            <c:numFmt formatCode="General" sourceLinked="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showPercent val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Execute Assembled Process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Select Techniques</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Document Feature Artifacts</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Peform Documentation Analysis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Assemble Techniques</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Document Process Experience</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Assign Tasks</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Assign Roles</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Collect Team Information</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pt-BR"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Effort per Phase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:showPercent val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$A$16:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Execute</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Assemble</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Prepare</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$B$16:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,17 +869,17 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -28757,7 +29093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -28765,17 +29101,17 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="39.6">
@@ -29207,18 +29543,18 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="B2" s="2">
@@ -29374,17 +29710,17 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -57629,4 +57965,131 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9">
+        <v>42.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="8">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>9.4700000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>